--- a/hardware/registradores/docs/registradores-BOM.xlsx
+++ b/hardware/registradores/docs/registradores-BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E839A7-1233-4A6A-9979-C3AEC869103F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05B08563-F027-4727-8D00-63490111FFAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6825" xr2:uid="{C96A4CAF-CD37-4A95-A6D0-6DF0DD7BE21C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6825" xr2:uid="{51D2DA3A-140B-49CD-A3B7-79FB01D33B74}"/>
   </bookViews>
   <sheets>
     <sheet name="registradores-BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Comment</t>
   </si>
@@ -67,6 +67,18 @@
     <t>KK Molex 2x1 Vertical Macho</t>
   </si>
   <si>
+    <t>NT0603</t>
+  </si>
+  <si>
+    <t>NT1</t>
+  </si>
+  <si>
+    <t>RES SMD 0603-N</t>
+  </si>
+  <si>
+    <t>NET TIE SMD 0603</t>
+  </si>
+  <si>
     <t>LATCH 7x2</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
   </si>
   <si>
     <t>R1, R2</t>
-  </si>
-  <si>
-    <t>RES SMD 0603-N</t>
   </si>
   <si>
     <t>74HC165D</t>
@@ -498,8 +507,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4561AC0C-8BBF-4D81-8740-EB603CCB2811}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C417F3-263C-4234-81A7-C9A267F04204}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,47 +582,47 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -622,7 +631,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -630,21 +639,41 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
         <v>9</v>
       </c>
     </row>
